--- a/dataanalysis/data/predictions/1600/08221505_1506.xlsx
+++ b/dataanalysis/data/predictions/1600/08221505_1506.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="179">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-08-22</t>
   </si>
   <si>
@@ -548,12 +551,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -911,13 +908,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH93"/>
+  <dimension ref="A1:AI93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1020,19 +1017,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300004</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>-3.67</v>
@@ -1050,7 +1050,7 @@
         <v>63280.07</v>
       </c>
       <c r="J2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K2">
         <v>4</v>
@@ -1091,8 +1091,23 @@
       <c r="W2">
         <v>-1.89</v>
       </c>
+      <c r="X2">
+        <v>13.58</v>
+      </c>
+      <c r="Y2">
+        <v>12.49</v>
+      </c>
+      <c r="Z2">
+        <v>16.19</v>
+      </c>
       <c r="AC2" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1100,22 +1115,25 @@
       <c r="AG2">
         <v>0.8659365177154541</v>
       </c>
-      <c r="AH2" t="s">
-        <v>178</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300033</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>5.32</v>
@@ -1133,7 +1151,7 @@
         <v>788595.25</v>
       </c>
       <c r="J3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K3">
         <v>5</v>
@@ -1174,8 +1192,23 @@
       <c r="W3">
         <v>0.62</v>
       </c>
+      <c r="X3">
+        <v>-0.62</v>
+      </c>
+      <c r="Y3">
+        <v>419.22</v>
+      </c>
+      <c r="Z3">
+        <v>4.59</v>
+      </c>
       <c r="AC3" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1183,22 +1216,25 @@
       <c r="AG3">
         <v>11.76937007904053</v>
       </c>
-      <c r="AH3" t="s">
-        <v>178</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300049</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>-5.41</v>
@@ -1216,7 +1252,7 @@
         <v>178784.05</v>
       </c>
       <c r="J4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K4">
         <v>12</v>
@@ -1257,8 +1293,23 @@
       <c r="W4">
         <v>-1.61</v>
       </c>
+      <c r="X4">
+        <v>-1.74</v>
+      </c>
+      <c r="Y4">
+        <v>65.28</v>
+      </c>
+      <c r="Z4">
+        <v>1.49</v>
+      </c>
       <c r="AC4" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1266,22 +1317,25 @@
       <c r="AG4">
         <v>0.6987922191619873</v>
       </c>
-      <c r="AH4" t="s">
-        <v>178</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300059</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>3.92</v>
@@ -1299,7 +1353,7 @@
         <v>2496964.61</v>
       </c>
       <c r="J5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K5">
         <v>4</v>
@@ -1340,8 +1394,23 @@
       <c r="W5">
         <v>0.53</v>
       </c>
+      <c r="X5">
+        <v>1.36</v>
+      </c>
+      <c r="Y5">
+        <v>28.92</v>
+      </c>
+      <c r="Z5">
+        <v>3.84</v>
+      </c>
       <c r="AC5" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1349,22 +1418,25 @@
       <c r="AG5">
         <v>8.394466400146484</v>
       </c>
-      <c r="AH5" t="s">
-        <v>178</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300066</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>20.06</v>
@@ -1382,7 +1454,7 @@
         <v>164762.42</v>
       </c>
       <c r="J6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K6">
         <v>12</v>
@@ -1423,8 +1495,23 @@
       <c r="W6">
         <v>5.91</v>
       </c>
+      <c r="X6">
+        <v>4.27</v>
+      </c>
+      <c r="Y6">
+        <v>9.41</v>
+      </c>
+      <c r="Z6">
+        <v>11.49</v>
+      </c>
       <c r="AC6" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
       </c>
       <c r="AF6">
         <v>1</v>
@@ -1432,22 +1519,25 @@
       <c r="AG6">
         <v>8.351061820983887</v>
       </c>
-      <c r="AH6" t="s">
-        <v>179</v>
+      <c r="AH6">
+        <v>1</v>
+      </c>
+      <c r="AI6">
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300113</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>20</v>
@@ -1465,7 +1555,7 @@
         <v>223875.3</v>
       </c>
       <c r="J7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1506,8 +1596,23 @@
       <c r="W7">
         <v>1.99</v>
       </c>
+      <c r="X7">
+        <v>5.36</v>
+      </c>
+      <c r="Y7">
+        <v>29.86</v>
+      </c>
+      <c r="Z7">
+        <v>9.619999999999999</v>
+      </c>
       <c r="AC7" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1515,22 +1620,25 @@
       <c r="AG7">
         <v>6.585804462432861</v>
       </c>
-      <c r="AH7" t="s">
-        <v>178</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300153</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>1.77</v>
@@ -1548,7 +1656,7 @@
         <v>200202.98</v>
       </c>
       <c r="J8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1589,8 +1697,23 @@
       <c r="W8">
         <v>-0.11</v>
       </c>
+      <c r="X8">
+        <v>-0.42</v>
+      </c>
+      <c r="Y8">
+        <v>48.33</v>
+      </c>
+      <c r="Z8">
+        <v>2.37</v>
+      </c>
       <c r="AC8" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1598,22 +1721,25 @@
       <c r="AG8">
         <v>2.173517942428589</v>
       </c>
-      <c r="AH8" t="s">
-        <v>178</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300184</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>6.76</v>
@@ -1631,7 +1757,7 @@
         <v>320860.26</v>
       </c>
       <c r="J9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K9">
         <v>4</v>
@@ -1672,8 +1798,23 @@
       <c r="W9">
         <v>0.78</v>
       </c>
+      <c r="X9">
+        <v>-2.42</v>
+      </c>
+      <c r="Y9">
+        <v>13.08</v>
+      </c>
+      <c r="Z9">
+        <v>2.19</v>
+      </c>
       <c r="AC9" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>1</v>
@@ -1681,22 +1822,25 @@
       <c r="AG9">
         <v>13.68561172485352</v>
       </c>
-      <c r="AH9" t="s">
-        <v>179</v>
+      <c r="AH9">
+        <v>1</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300290</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>1.25</v>
@@ -1714,7 +1858,7 @@
         <v>161666.74</v>
       </c>
       <c r="J10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1755,8 +1899,23 @@
       <c r="W10">
         <v>-0.13</v>
       </c>
+      <c r="X10">
+        <v>2.51</v>
+      </c>
+      <c r="Y10">
+        <v>26.96</v>
+      </c>
+      <c r="Z10">
+        <v>7.54</v>
+      </c>
       <c r="AC10" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1764,22 +1923,25 @@
       <c r="AG10">
         <v>6.70915412902832</v>
       </c>
-      <c r="AH10" t="s">
-        <v>178</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300323</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>0.83</v>
@@ -1797,7 +1959,7 @@
         <v>121558.9</v>
       </c>
       <c r="J11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1838,8 +2000,23 @@
       <c r="W11">
         <v>0.15</v>
       </c>
+      <c r="X11">
+        <v>0.41</v>
+      </c>
+      <c r="Y11">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="Z11">
+        <v>2.26</v>
+      </c>
       <c r="AC11" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1847,22 +2024,25 @@
       <c r="AG11">
         <v>-10.81286430358887</v>
       </c>
-      <c r="AH11" t="s">
-        <v>178</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300324</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>7.99</v>
@@ -1880,7 +2060,7 @@
         <v>263179.29</v>
       </c>
       <c r="J12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1921,8 +2101,23 @@
       <c r="W12">
         <v>0.12</v>
       </c>
+      <c r="X12">
+        <v>-2.36</v>
+      </c>
+      <c r="Y12">
+        <v>6.66</v>
+      </c>
+      <c r="Z12">
+        <v>4.88</v>
+      </c>
       <c r="AC12" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>1</v>
@@ -1930,22 +2125,25 @@
       <c r="AG12">
         <v>4.920152187347412</v>
       </c>
-      <c r="AH12" t="s">
-        <v>179</v>
+      <c r="AH12">
+        <v>1</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300328</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>2.67</v>
@@ -1963,7 +2161,7 @@
         <v>275397.99</v>
       </c>
       <c r="J13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K13">
         <v>4</v>
@@ -2004,8 +2202,23 @@
       <c r="W13">
         <v>-1.23</v>
       </c>
+      <c r="X13">
+        <v>5.37</v>
+      </c>
+      <c r="Y13">
+        <v>19.43</v>
+      </c>
+      <c r="Z13">
+        <v>9.84</v>
+      </c>
       <c r="AC13" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>1</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -2013,22 +2226,25 @@
       <c r="AG13">
         <v>10.27045822143555</v>
       </c>
-      <c r="AH13" t="s">
-        <v>178</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300339</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>3.1</v>
@@ -2046,7 +2262,7 @@
         <v>694350.6899999999</v>
       </c>
       <c r="J14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -2087,8 +2303,23 @@
       <c r="W14">
         <v>0.05</v>
       </c>
+      <c r="X14">
+        <v>-1.03</v>
+      </c>
+      <c r="Y14">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="Z14">
+        <v>5.49</v>
+      </c>
       <c r="AC14" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2096,22 +2327,25 @@
       <c r="AG14">
         <v>4.989697933197021</v>
       </c>
-      <c r="AH14" t="s">
-        <v>178</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300352</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>-4.1</v>
@@ -2129,7 +2363,7 @@
         <v>286933.22</v>
       </c>
       <c r="J15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -2170,8 +2404,23 @@
       <c r="W15">
         <v>-5.47</v>
       </c>
+      <c r="X15">
+        <v>-1.79</v>
+      </c>
+      <c r="Y15">
+        <v>7.37</v>
+      </c>
+      <c r="Z15">
+        <v>1.52</v>
+      </c>
       <c r="AC15" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2179,22 +2428,25 @@
       <c r="AG15">
         <v>21.34654998779297</v>
       </c>
-      <c r="AH15" t="s">
-        <v>178</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300409</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>8.859999999999999</v>
@@ -2212,7 +2464,7 @@
         <v>225967.03</v>
       </c>
       <c r="J16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K16">
         <v>5</v>
@@ -2253,8 +2505,23 @@
       <c r="W16">
         <v>0.15</v>
       </c>
+      <c r="X16">
+        <v>0.58</v>
+      </c>
+      <c r="Y16">
+        <v>23</v>
+      </c>
+      <c r="Z16">
+        <v>2.31</v>
+      </c>
       <c r="AC16" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2262,22 +2529,25 @@
       <c r="AG16">
         <v>11.1679515838623</v>
       </c>
-      <c r="AH16" t="s">
-        <v>178</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300469</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>0.74</v>
@@ -2295,7 +2565,7 @@
         <v>71174.44</v>
       </c>
       <c r="J17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -2336,8 +2606,23 @@
       <c r="W17">
         <v>-0.02</v>
       </c>
+      <c r="X17">
+        <v>0.06</v>
+      </c>
+      <c r="Y17">
+        <v>51.13</v>
+      </c>
+      <c r="Z17">
+        <v>1.77</v>
+      </c>
       <c r="AC17" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2345,22 +2630,25 @@
       <c r="AG17">
         <v>3.638909339904785</v>
       </c>
-      <c r="AH17" t="s">
-        <v>178</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300491</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>12.32</v>
@@ -2378,7 +2666,7 @@
         <v>94544.5</v>
       </c>
       <c r="J18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -2419,8 +2707,23 @@
       <c r="W18">
         <v>2.18</v>
       </c>
+      <c r="X18">
+        <v>14.39</v>
+      </c>
+      <c r="Y18">
+        <v>30</v>
+      </c>
+      <c r="Z18">
+        <v>16.69</v>
+      </c>
       <c r="AC18" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2428,22 +2731,25 @@
       <c r="AG18">
         <v>3.69433856010437</v>
       </c>
-      <c r="AH18" t="s">
-        <v>178</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300499</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>-0.77</v>
@@ -2461,7 +2767,7 @@
         <v>220623.54</v>
       </c>
       <c r="J19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K19">
         <v>8</v>
@@ -2502,8 +2808,23 @@
       <c r="W19">
         <v>0.2</v>
       </c>
+      <c r="X19">
+        <v>3.92</v>
+      </c>
+      <c r="Y19">
+        <v>33.89</v>
+      </c>
+      <c r="Z19">
+        <v>5.38</v>
+      </c>
       <c r="AC19" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2511,22 +2832,25 @@
       <c r="AG19">
         <v>3.31206488609314</v>
       </c>
-      <c r="AH19" t="s">
-        <v>178</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300539</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>1.81</v>
@@ -2544,7 +2868,7 @@
         <v>72892.99000000001</v>
       </c>
       <c r="J20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K20">
         <v>12</v>
@@ -2585,8 +2909,23 @@
       <c r="W20">
         <v>0.28</v>
       </c>
+      <c r="X20">
+        <v>-2.09</v>
+      </c>
+      <c r="Y20">
+        <v>32.21</v>
+      </c>
+      <c r="Z20">
+        <v>0.5600000000000001</v>
+      </c>
       <c r="AC20" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2594,22 +2933,25 @@
       <c r="AG20">
         <v>-0.8847019672393799</v>
       </c>
-      <c r="AH20" t="s">
-        <v>178</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300547</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>1.42</v>
@@ -2627,7 +2969,7 @@
         <v>159568.63</v>
       </c>
       <c r="J21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K21">
         <v>6</v>
@@ -2668,8 +3010,23 @@
       <c r="W21">
         <v>0.2</v>
       </c>
+      <c r="X21">
+        <v>4.21</v>
+      </c>
+      <c r="Y21">
+        <v>52.19</v>
+      </c>
+      <c r="Z21">
+        <v>4.69</v>
+      </c>
       <c r="AC21" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2677,22 +3034,25 @@
       <c r="AG21">
         <v>0.3758930265903473</v>
       </c>
-      <c r="AH21" t="s">
-        <v>178</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300572</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>2.38</v>
@@ -2710,7 +3070,7 @@
         <v>44604.58</v>
       </c>
       <c r="J22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K22">
         <v>4</v>
@@ -2751,8 +3111,23 @@
       <c r="W22">
         <v>0.3</v>
       </c>
+      <c r="X22">
+        <v>-0.29</v>
+      </c>
+      <c r="Y22">
+        <v>28.66</v>
+      </c>
+      <c r="Z22">
+        <v>2.39</v>
+      </c>
       <c r="AC22" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2760,22 +3135,25 @@
       <c r="AG22">
         <v>2.293982267379761</v>
       </c>
-      <c r="AH22" t="s">
-        <v>178</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300579</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>3.51</v>
@@ -2793,7 +3171,7 @@
         <v>77938.95</v>
       </c>
       <c r="J23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K23">
         <v>8</v>
@@ -2834,8 +3212,23 @@
       <c r="W23">
         <v>0.27</v>
       </c>
+      <c r="X23">
+        <v>0.46</v>
+      </c>
+      <c r="Y23">
+        <v>41.54</v>
+      </c>
+      <c r="Z23">
+        <v>1.32</v>
+      </c>
       <c r="AC23" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2843,22 +3236,25 @@
       <c r="AG23">
         <v>3.786307334899902</v>
       </c>
-      <c r="AH23" t="s">
-        <v>178</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300598</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>2.35</v>
@@ -2876,7 +3272,7 @@
         <v>220142.23</v>
       </c>
       <c r="J24" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -2917,8 +3313,23 @@
       <c r="W24">
         <v>-0.07000000000000001</v>
       </c>
+      <c r="X24">
+        <v>-0.79</v>
+      </c>
+      <c r="Y24">
+        <v>65.98</v>
+      </c>
+      <c r="Z24">
+        <v>11.17</v>
+      </c>
       <c r="AC24" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2926,22 +3337,25 @@
       <c r="AG24">
         <v>4.300375461578369</v>
       </c>
-      <c r="AH24" t="s">
-        <v>178</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300620</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>1.86</v>
@@ -2959,7 +3373,7 @@
         <v>202994.3</v>
       </c>
       <c r="J25" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K25">
         <v>9</v>
@@ -3000,8 +3414,23 @@
       <c r="W25">
         <v>0.42</v>
       </c>
+      <c r="X25">
+        <v>3.86</v>
+      </c>
+      <c r="Y25">
+        <v>95.68000000000001</v>
+      </c>
+      <c r="Z25">
+        <v>7.72</v>
+      </c>
       <c r="AC25" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -3009,22 +3438,25 @@
       <c r="AG25">
         <v>1.992327690124512</v>
       </c>
-      <c r="AH25" t="s">
-        <v>178</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300637</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>0.99</v>
@@ -3042,7 +3474,7 @@
         <v>55666.81</v>
       </c>
       <c r="J26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K26">
         <v>8</v>
@@ -3083,8 +3515,23 @@
       <c r="W26">
         <v>-0.4</v>
       </c>
+      <c r="X26">
+        <v>-1.23</v>
+      </c>
+      <c r="Y26">
+        <v>16.52</v>
+      </c>
+      <c r="Z26">
+        <v>1.66</v>
+      </c>
       <c r="AC26" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3092,22 +3539,25 @@
       <c r="AG26">
         <v>3.17067551612854</v>
       </c>
-      <c r="AH26" t="s">
-        <v>178</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300642</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>7.67</v>
@@ -3125,7 +3575,7 @@
         <v>66124.89</v>
       </c>
       <c r="J27" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K27">
         <v>4</v>
@@ -3166,8 +3616,23 @@
       <c r="W27">
         <v>1.42</v>
       </c>
+      <c r="X27">
+        <v>10.7</v>
+      </c>
+      <c r="Y27">
+        <v>29.8</v>
+      </c>
+      <c r="Z27">
+        <v>14.75</v>
+      </c>
       <c r="AC27" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>1</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3175,22 +3640,25 @@
       <c r="AG27">
         <v>3.291674375534058</v>
       </c>
-      <c r="AH27" t="s">
-        <v>178</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300686</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>-2.7</v>
@@ -3208,7 +3676,7 @@
         <v>71229.12</v>
       </c>
       <c r="J28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -3249,8 +3717,23 @@
       <c r="W28">
         <v>-0.33</v>
       </c>
+      <c r="X28">
+        <v>-2.02</v>
+      </c>
+      <c r="Y28">
+        <v>13.24</v>
+      </c>
+      <c r="Z28">
+        <v>-0.75</v>
+      </c>
       <c r="AC28" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3258,22 +3741,25 @@
       <c r="AG28">
         <v>-41.5199089050293</v>
       </c>
-      <c r="AH28" t="s">
-        <v>178</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300701</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>-0.95</v>
@@ -3291,7 +3777,7 @@
         <v>48796.28</v>
       </c>
       <c r="J29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -3332,8 +3818,23 @@
       <c r="W29">
         <v>-0.28</v>
       </c>
+      <c r="X29">
+        <v>1.51</v>
+      </c>
+      <c r="Y29">
+        <v>12.8</v>
+      </c>
+      <c r="Z29">
+        <v>1.99</v>
+      </c>
       <c r="AC29" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3341,22 +3842,25 @@
       <c r="AG29">
         <v>-1.116022348403931</v>
       </c>
-      <c r="AH29" t="s">
-        <v>178</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300724</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>1.82</v>
@@ -3374,7 +3878,7 @@
         <v>188528.26</v>
       </c>
       <c r="J30" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K30">
         <v>4</v>
@@ -3415,8 +3919,23 @@
       <c r="W30">
         <v>-0.06</v>
       </c>
+      <c r="X30">
+        <v>8.65</v>
+      </c>
+      <c r="Y30">
+        <v>85.5</v>
+      </c>
+      <c r="Z30">
+        <v>10.51</v>
+      </c>
       <c r="AC30" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD30">
+        <v>1</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
       </c>
       <c r="AF30">
         <v>1</v>
@@ -3424,22 +3943,25 @@
       <c r="AG30">
         <v>8.07904052734375</v>
       </c>
-      <c r="AH30" t="s">
-        <v>178</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300730</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>9.56</v>
@@ -3457,7 +3979,7 @@
         <v>201344.05</v>
       </c>
       <c r="J31" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K31">
         <v>5</v>
@@ -3498,8 +4020,23 @@
       <c r="W31">
         <v>0.95</v>
       </c>
+      <c r="X31">
+        <v>-5.65</v>
+      </c>
+      <c r="Y31">
+        <v>24.55</v>
+      </c>
+      <c r="Z31">
+        <v>3.5</v>
+      </c>
       <c r="AC31" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3507,22 +4044,25 @@
       <c r="AG31">
         <v>4.563542366027832</v>
       </c>
-      <c r="AH31" t="s">
-        <v>178</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300740</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>-4.82</v>
@@ -3540,7 +4080,7 @@
         <v>83341.16</v>
       </c>
       <c r="J32" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -3581,8 +4121,23 @@
       <c r="W32">
         <v>-1.65</v>
       </c>
+      <c r="X32">
+        <v>5.12</v>
+      </c>
+      <c r="Y32">
+        <v>22.18</v>
+      </c>
+      <c r="Z32">
+        <v>8.09</v>
+      </c>
       <c r="AC32" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>1</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3590,22 +4145,25 @@
       <c r="AG32">
         <v>2.9994215965271</v>
       </c>
-      <c r="AH32" t="s">
-        <v>178</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300748</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>2.47</v>
@@ -3623,7 +4181,7 @@
         <v>284469.3</v>
       </c>
       <c r="J33" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K33">
         <v>31</v>
@@ -3664,8 +4222,23 @@
       <c r="W33">
         <v>0.09</v>
       </c>
+      <c r="X33">
+        <v>20</v>
+      </c>
+      <c r="Y33">
+        <v>36.36</v>
+      </c>
+      <c r="Z33">
+        <v>20</v>
+      </c>
       <c r="AC33" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>1</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3673,22 +4246,25 @@
       <c r="AG33">
         <v>12.59077262878418</v>
       </c>
-      <c r="AH33" t="s">
-        <v>178</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>300752</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>2.66</v>
@@ -3706,7 +4282,7 @@
         <v>81635.03999999999</v>
       </c>
       <c r="J34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K34">
         <v>4</v>
@@ -3747,8 +4323,23 @@
       <c r="W34">
         <v>0.8100000000000001</v>
       </c>
+      <c r="X34">
+        <v>3.62</v>
+      </c>
+      <c r="Y34">
+        <v>27.86</v>
+      </c>
+      <c r="Z34">
+        <v>6.09</v>
+      </c>
       <c r="AC34" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3756,22 +4347,25 @@
       <c r="AG34">
         <v>3.672852039337158</v>
       </c>
-      <c r="AH34" t="s">
-        <v>178</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>300767</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>19.98</v>
@@ -3789,7 +4383,7 @@
         <v>116707.6</v>
       </c>
       <c r="J35" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K35">
         <v>5</v>
@@ -3830,8 +4424,23 @@
       <c r="W35">
         <v>2.49</v>
       </c>
+      <c r="X35">
+        <v>-1.26</v>
+      </c>
+      <c r="Y35">
+        <v>27.26</v>
+      </c>
+      <c r="Z35">
+        <v>7.58</v>
+      </c>
       <c r="AC35" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="AD35">
+        <v>1</v>
+      </c>
+      <c r="AE35">
+        <v>1</v>
       </c>
       <c r="AF35">
         <v>1</v>
@@ -3839,22 +4448,25 @@
       <c r="AG35">
         <v>4.14954948425293</v>
       </c>
-      <c r="AH35" t="s">
-        <v>179</v>
+      <c r="AH35">
+        <v>1</v>
+      </c>
+      <c r="AI35">
+        <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>300803</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>10.19</v>
@@ -3872,7 +4484,7 @@
         <v>1094112.56</v>
       </c>
       <c r="J36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K36">
         <v>9</v>
@@ -3913,8 +4525,23 @@
       <c r="W36">
         <v>0.46</v>
       </c>
+      <c r="X36">
+        <v>3.48</v>
+      </c>
+      <c r="Y36">
+        <v>155.5</v>
+      </c>
+      <c r="Z36">
+        <v>10.03</v>
+      </c>
       <c r="AC36" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>1</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3922,22 +4549,25 @@
       <c r="AG36">
         <v>-15.64815330505371</v>
       </c>
-      <c r="AH36" t="s">
-        <v>178</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>300806</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>0.75</v>
@@ -3955,7 +4585,7 @@
         <v>71797.39999999999</v>
       </c>
       <c r="J37" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K37">
         <v>6</v>
@@ -3996,8 +4626,23 @@
       <c r="W37">
         <v>-0.34</v>
       </c>
+      <c r="X37">
+        <v>-0.63</v>
+      </c>
+      <c r="Y37">
+        <v>25.66</v>
+      </c>
+      <c r="Z37">
+        <v>0.67</v>
+      </c>
       <c r="AC37" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -4005,22 +4650,25 @@
       <c r="AG37">
         <v>5.3394775390625</v>
       </c>
-      <c r="AH37" t="s">
-        <v>178</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>300809</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>4.25</v>
@@ -4038,7 +4686,7 @@
         <v>69542.52</v>
       </c>
       <c r="J38" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -4079,8 +4727,23 @@
       <c r="W38">
         <v>-0.16</v>
       </c>
+      <c r="X38">
+        <v>-2.9</v>
+      </c>
+      <c r="Y38">
+        <v>50.93</v>
+      </c>
+      <c r="Z38">
+        <v>0.41</v>
+      </c>
       <c r="AC38" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4088,22 +4751,25 @@
       <c r="AG38">
         <v>10.5894832611084</v>
       </c>
-      <c r="AH38" t="s">
-        <v>178</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>300810</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>4.51</v>
@@ -4121,7 +4787,7 @@
         <v>118836.95</v>
       </c>
       <c r="J39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -4162,8 +4828,23 @@
       <c r="W39">
         <v>0.93</v>
       </c>
+      <c r="X39">
+        <v>-1.06</v>
+      </c>
+      <c r="Y39">
+        <v>56.45</v>
+      </c>
+      <c r="Z39">
+        <v>1.4</v>
+      </c>
       <c r="AC39" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4171,22 +4852,25 @@
       <c r="AG39">
         <v>8.975646018981934</v>
       </c>
-      <c r="AH39" t="s">
-        <v>178</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>300830</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>0.5</v>
@@ -4204,7 +4888,7 @@
         <v>75475.81</v>
       </c>
       <c r="J40" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K40">
         <v>6</v>
@@ -4245,8 +4929,23 @@
       <c r="W40">
         <v>-0.35</v>
       </c>
+      <c r="X40">
+        <v>-2.9</v>
+      </c>
+      <c r="Y40">
+        <v>14.1</v>
+      </c>
+      <c r="Z40">
+        <v>-0.35</v>
+      </c>
       <c r="AC40" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4254,22 +4953,25 @@
       <c r="AG40">
         <v>13.47164726257324</v>
       </c>
-      <c r="AH40" t="s">
-        <v>178</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>300843</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>16</v>
@@ -4287,7 +4989,7 @@
         <v>136135.18</v>
       </c>
       <c r="J41" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K41">
         <v>6</v>
@@ -4328,8 +5030,23 @@
       <c r="W41">
         <v>1.23</v>
       </c>
+      <c r="X41">
+        <v>-3.78</v>
+      </c>
+      <c r="Y41">
+        <v>56.82</v>
+      </c>
+      <c r="Z41">
+        <v>0.35</v>
+      </c>
       <c r="AC41" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4337,22 +5054,25 @@
       <c r="AG41">
         <v>-0.3705263137817383</v>
       </c>
-      <c r="AH41" t="s">
-        <v>178</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>300859</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>8.52</v>
@@ -4370,7 +5090,7 @@
         <v>120082.7</v>
       </c>
       <c r="J42" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K42">
         <v>1</v>
@@ -4411,8 +5131,23 @@
       <c r="W42">
         <v>0.38</v>
       </c>
+      <c r="X42">
+        <v>-0.2</v>
+      </c>
+      <c r="Y42">
+        <v>45.98</v>
+      </c>
+      <c r="Z42">
+        <v>2</v>
+      </c>
       <c r="AC42" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4420,22 +5155,25 @@
       <c r="AG42">
         <v>-3.727702617645264</v>
       </c>
-      <c r="AH42" t="s">
-        <v>178</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>300870</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>6.23</v>
@@ -4453,7 +5191,7 @@
         <v>209420.86</v>
       </c>
       <c r="J43" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K43">
         <v>8</v>
@@ -4494,8 +5232,23 @@
       <c r="W43">
         <v>0.77</v>
       </c>
+      <c r="X43">
+        <v>-1.77</v>
+      </c>
+      <c r="Y43">
+        <v>270.85</v>
+      </c>
+      <c r="Z43">
+        <v>0.78</v>
+      </c>
       <c r="AC43" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4503,22 +5256,25 @@
       <c r="AG43">
         <v>1.835943222045898</v>
       </c>
-      <c r="AH43" t="s">
-        <v>178</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>300893</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>-2.59</v>
@@ -4536,7 +5292,7 @@
         <v>58341.88</v>
       </c>
       <c r="J44" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K44">
         <v>2</v>
@@ -4577,8 +5333,23 @@
       <c r="W44">
         <v>-0.13</v>
       </c>
+      <c r="X44">
+        <v>-3.14</v>
+      </c>
+      <c r="Y44">
+        <v>32.99</v>
+      </c>
+      <c r="Z44">
+        <v>-0.24</v>
+      </c>
       <c r="AC44" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4586,22 +5357,25 @@
       <c r="AG44">
         <v>6.17972993850708</v>
       </c>
-      <c r="AH44" t="s">
-        <v>178</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>300902</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>6.02</v>
@@ -4619,7 +5393,7 @@
         <v>56884.94</v>
       </c>
       <c r="J45" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K45">
         <v>8</v>
@@ -4660,8 +5434,23 @@
       <c r="W45">
         <v>-0.6899999999999999</v>
       </c>
+      <c r="X45">
+        <v>-15.04</v>
+      </c>
+      <c r="Y45">
+        <v>30.77</v>
+      </c>
+      <c r="Z45">
+        <v>-4.97</v>
+      </c>
       <c r="AC45" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4669,22 +5458,25 @@
       <c r="AG45">
         <v>-1.707415580749512</v>
       </c>
-      <c r="AH45" t="s">
-        <v>178</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>300907</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>7.49</v>
@@ -4702,7 +5494,7 @@
         <v>36584.19</v>
       </c>
       <c r="J46" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K46">
         <v>6</v>
@@ -4743,8 +5535,23 @@
       <c r="W46">
         <v>0.86</v>
       </c>
+      <c r="X46">
+        <v>-3.79</v>
+      </c>
+      <c r="Y46">
+        <v>40.9</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
       <c r="AC46" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4752,22 +5559,25 @@
       <c r="AG46">
         <v>5.322184562683105</v>
       </c>
-      <c r="AH46" t="s">
-        <v>178</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>300913</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>1.86</v>
@@ -4785,7 +5595,7 @@
         <v>109000.14</v>
       </c>
       <c r="J47" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K47">
         <v>4</v>
@@ -4826,8 +5636,23 @@
       <c r="W47">
         <v>-0.06</v>
       </c>
+      <c r="X47">
+        <v>4.94</v>
+      </c>
+      <c r="Y47">
+        <v>61.65</v>
+      </c>
+      <c r="Z47">
+        <v>5.12</v>
+      </c>
       <c r="AC47" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4835,22 +5660,25 @@
       <c r="AG47">
         <v>7.408700466156006</v>
       </c>
-      <c r="AH47" t="s">
-        <v>178</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>300951</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>-0.57</v>
@@ -4868,7 +5696,7 @@
         <v>31755.8</v>
       </c>
       <c r="J48" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K48">
         <v>5</v>
@@ -4909,8 +5737,23 @@
       <c r="W48">
         <v>0.14</v>
       </c>
+      <c r="X48">
+        <v>-1.79</v>
+      </c>
+      <c r="Y48">
+        <v>40.39</v>
+      </c>
+      <c r="Z48">
+        <v>0.3</v>
+      </c>
       <c r="AC48" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4918,22 +5761,25 @@
       <c r="AG48">
         <v>4.946543216705322</v>
       </c>
-      <c r="AH48" t="s">
-        <v>178</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>300991</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -4951,7 +5797,7 @@
         <v>54696.6</v>
       </c>
       <c r="J49" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K49">
         <v>1</v>
@@ -4992,8 +5838,23 @@
       <c r="W49">
         <v>-0.26</v>
       </c>
+      <c r="X49">
+        <v>14.95</v>
+      </c>
+      <c r="Y49">
+        <v>45.6</v>
+      </c>
+      <c r="Z49">
+        <v>20</v>
+      </c>
       <c r="AC49" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>1</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -5001,22 +5862,25 @@
       <c r="AG49">
         <v>2.210273027420044</v>
       </c>
-      <c r="AH49" t="s">
-        <v>178</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>300995</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>-1.31</v>
@@ -5034,7 +5898,7 @@
         <v>27675.13</v>
       </c>
       <c r="J50" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K50">
         <v>3</v>
@@ -5075,8 +5939,23 @@
       <c r="W50">
         <v>-0.63</v>
       </c>
+      <c r="X50">
+        <v>0.36</v>
+      </c>
+      <c r="Y50">
+        <v>62.09</v>
+      </c>
+      <c r="Z50">
+        <v>2.83</v>
+      </c>
       <c r="AC50" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -5084,22 +5963,25 @@
       <c r="AG50">
         <v>3.491153001785278</v>
       </c>
-      <c r="AH50" t="s">
-        <v>178</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>301002</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>1.99</v>
@@ -5117,7 +5999,7 @@
         <v>33335.12</v>
       </c>
       <c r="J51" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K51">
         <v>1</v>
@@ -5158,8 +6040,23 @@
       <c r="W51">
         <v>-0.11</v>
       </c>
+      <c r="X51">
+        <v>2.9</v>
+      </c>
+      <c r="Y51">
+        <v>32.6</v>
+      </c>
+      <c r="Z51">
+        <v>6.12</v>
+      </c>
       <c r="AC51" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5167,22 +6064,25 @@
       <c r="AG51">
         <v>-0.6021797657012939</v>
       </c>
-      <c r="AH51" t="s">
-        <v>178</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>301007</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>-0.43</v>
@@ -5200,7 +6100,7 @@
         <v>30205.96</v>
       </c>
       <c r="J52" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K52">
         <v>8</v>
@@ -5241,8 +6141,23 @@
       <c r="W52">
         <v>0.07000000000000001</v>
       </c>
+      <c r="X52">
+        <v>1.4</v>
+      </c>
+      <c r="Y52">
+        <v>48.44</v>
+      </c>
+      <c r="Z52">
+        <v>4.51</v>
+      </c>
       <c r="AC52" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5250,22 +6165,25 @@
       <c r="AG52">
         <v>1.890162706375122</v>
       </c>
-      <c r="AH52" t="s">
-        <v>178</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>301018</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>8.1</v>
@@ -5283,7 +6201,7 @@
         <v>129046.16</v>
       </c>
       <c r="J53" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K53">
         <v>8</v>
@@ -5324,8 +6242,23 @@
       <c r="W53">
         <v>0.85</v>
       </c>
+      <c r="X53">
+        <v>2.18</v>
+      </c>
+      <c r="Y53">
+        <v>74.7</v>
+      </c>
+      <c r="Z53">
+        <v>7.99</v>
+      </c>
       <c r="AC53" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="AD53">
+        <v>1</v>
+      </c>
+      <c r="AE53">
+        <v>1</v>
       </c>
       <c r="AF53">
         <v>1</v>
@@ -5333,22 +6266,25 @@
       <c r="AG53">
         <v>2.943668127059937</v>
       </c>
-      <c r="AH53" t="s">
-        <v>179</v>
+      <c r="AH53">
+        <v>1</v>
+      </c>
+      <c r="AI53">
+        <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>301041</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>1.12</v>
@@ -5366,7 +6302,7 @@
         <v>51552.92</v>
       </c>
       <c r="J54" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K54">
         <v>2</v>
@@ -5407,8 +6343,23 @@
       <c r="W54">
         <v>0.37</v>
       </c>
+      <c r="X54">
+        <v>4.1</v>
+      </c>
+      <c r="Y54">
+        <v>33</v>
+      </c>
+      <c r="Z54">
+        <v>4.1</v>
+      </c>
       <c r="AC54" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5416,22 +6367,25 @@
       <c r="AG54">
         <v>-0.1545515209436417</v>
       </c>
-      <c r="AH54" t="s">
-        <v>178</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>301052</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>5.37</v>
@@ -5449,7 +6403,7 @@
         <v>77319.39</v>
       </c>
       <c r="J55" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K55">
         <v>2</v>
@@ -5490,8 +6444,23 @@
       <c r="W55">
         <v>1.07</v>
       </c>
+      <c r="X55">
+        <v>1.05</v>
+      </c>
+      <c r="Y55">
+        <v>79.98999999999999</v>
+      </c>
+      <c r="Z55">
+        <v>2.39</v>
+      </c>
       <c r="AC55" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
       </c>
       <c r="AF55">
         <v>1</v>
@@ -5499,22 +6468,25 @@
       <c r="AG55">
         <v>3.259923696517944</v>
       </c>
-      <c r="AH55" t="s">
-        <v>179</v>
+      <c r="AH55">
+        <v>1</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>301095</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>9.119999999999999</v>
@@ -5532,7 +6504,7 @@
         <v>146233.16</v>
       </c>
       <c r="J56" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K56">
         <v>18</v>
@@ -5573,8 +6545,23 @@
       <c r="W56">
         <v>0.18</v>
       </c>
+      <c r="X56">
+        <v>-2.8</v>
+      </c>
+      <c r="Y56">
+        <v>99.01000000000001</v>
+      </c>
+      <c r="Z56">
+        <v>4.49</v>
+      </c>
       <c r="AC56" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5582,22 +6569,25 @@
       <c r="AG56">
         <v>3.531956911087036</v>
       </c>
-      <c r="AH56" t="s">
-        <v>178</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>301123</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>0.14</v>
@@ -5615,7 +6605,7 @@
         <v>83034.78</v>
       </c>
       <c r="J57" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K57">
         <v>14</v>
@@ -5656,8 +6646,23 @@
       <c r="W57">
         <v>0.77</v>
       </c>
+      <c r="X57">
+        <v>-0.46</v>
+      </c>
+      <c r="Y57">
+        <v>43.31</v>
+      </c>
+      <c r="Z57">
+        <v>0.51</v>
+      </c>
       <c r="AC57" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
       </c>
       <c r="AF57">
         <v>1</v>
@@ -5665,22 +6670,25 @@
       <c r="AG57">
         <v>9.743714332580566</v>
       </c>
-      <c r="AH57" t="s">
-        <v>179</v>
+      <c r="AH57">
+        <v>1</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>301128</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>5.66</v>
@@ -5698,7 +6706,7 @@
         <v>134718.66</v>
       </c>
       <c r="J58" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K58">
         <v>8</v>
@@ -5739,8 +6747,23 @@
       <c r="W58">
         <v>0.1</v>
       </c>
+      <c r="X58">
+        <v>20</v>
+      </c>
+      <c r="Y58">
+        <v>117.98</v>
+      </c>
+      <c r="Z58">
+        <v>20</v>
+      </c>
       <c r="AC58" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>1</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -5748,22 +6771,25 @@
       <c r="AG58">
         <v>11.43287181854248</v>
       </c>
-      <c r="AH58" t="s">
-        <v>178</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>301165</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>10.97</v>
@@ -5781,7 +6807,7 @@
         <v>197991.83</v>
       </c>
       <c r="J59" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K59">
         <v>9</v>
@@ -5822,8 +6848,23 @@
       <c r="W59">
         <v>1.11</v>
       </c>
+      <c r="X59">
+        <v>1.03</v>
+      </c>
+      <c r="Y59">
+        <v>98</v>
+      </c>
+      <c r="Z59">
+        <v>8.710000000000001</v>
+      </c>
       <c r="AC59" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>1</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -5831,22 +6872,25 @@
       <c r="AG59">
         <v>11.06132984161377</v>
       </c>
-      <c r="AH59" t="s">
-        <v>178</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>301217</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>10.93</v>
@@ -5864,7 +6908,7 @@
         <v>258879.13</v>
       </c>
       <c r="J60" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K60">
         <v>35</v>
@@ -5905,8 +6949,23 @@
       <c r="W60">
         <v>0.61</v>
       </c>
+      <c r="X60">
+        <v>4.98</v>
+      </c>
+      <c r="Y60">
+        <v>36.4</v>
+      </c>
+      <c r="Z60">
+        <v>7.34</v>
+      </c>
       <c r="AC60" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>1</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -5914,22 +6973,25 @@
       <c r="AG60">
         <v>-6.141988277435303</v>
       </c>
-      <c r="AH60" t="s">
-        <v>178</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>301219</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>3.06</v>
@@ -5947,7 +7009,7 @@
         <v>90754.96000000001</v>
       </c>
       <c r="J61" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K61">
         <v>3</v>
@@ -5988,8 +7050,23 @@
       <c r="W61">
         <v>-0.12</v>
       </c>
+      <c r="X61">
+        <v>2</v>
+      </c>
+      <c r="Y61">
+        <v>69.33</v>
+      </c>
+      <c r="Z61">
+        <v>2.79</v>
+      </c>
       <c r="AC61" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -5997,22 +7074,25 @@
       <c r="AG61">
         <v>3.978224277496338</v>
       </c>
-      <c r="AH61" t="s">
-        <v>178</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>301321</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>0.06</v>
@@ -6030,7 +7110,7 @@
         <v>31363.99</v>
       </c>
       <c r="J62" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K62">
         <v>2</v>
@@ -6071,8 +7151,23 @@
       <c r="W62">
         <v>-0.27</v>
       </c>
+      <c r="X62">
+        <v>-2.14</v>
+      </c>
+      <c r="Y62">
+        <v>18.24</v>
+      </c>
+      <c r="Z62">
+        <v>0.27</v>
+      </c>
       <c r="AC62" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -6080,22 +7175,25 @@
       <c r="AG62">
         <v>-0.5118176341056824</v>
       </c>
-      <c r="AH62" t="s">
-        <v>178</v>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>301345</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>5.23</v>
@@ -6113,7 +7211,7 @@
         <v>45749.73</v>
       </c>
       <c r="J63" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K63">
         <v>1</v>
@@ -6154,8 +7252,23 @@
       <c r="W63">
         <v>0.65</v>
       </c>
+      <c r="X63">
+        <v>-1.48</v>
+      </c>
+      <c r="Y63">
+        <v>196.85</v>
+      </c>
+      <c r="Z63">
+        <v>1.06</v>
+      </c>
       <c r="AC63" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -6163,22 +7276,25 @@
       <c r="AG63">
         <v>4.48170804977417</v>
       </c>
-      <c r="AH63" t="s">
-        <v>178</v>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>301357</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64">
         <v>2.08</v>
@@ -6196,7 +7312,7 @@
         <v>114633.51</v>
       </c>
       <c r="J64" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K64">
         <v>19</v>
@@ -6237,8 +7353,23 @@
       <c r="W64">
         <v>-0.5</v>
       </c>
+      <c r="X64">
+        <v>-1.43</v>
+      </c>
+      <c r="Y64">
+        <v>168</v>
+      </c>
+      <c r="Z64">
+        <v>1.24</v>
+      </c>
       <c r="AC64" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
       </c>
       <c r="AF64">
         <v>0</v>
@@ -6246,22 +7377,25 @@
       <c r="AG64">
         <v>5.447089195251465</v>
       </c>
-      <c r="AH64" t="s">
-        <v>178</v>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>301377</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65">
         <v>19.99</v>
@@ -6279,7 +7413,7 @@
         <v>83882.11</v>
       </c>
       <c r="J65" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K65">
         <v>10</v>
@@ -6320,8 +7454,23 @@
       <c r="W65">
         <v>1.92</v>
       </c>
+      <c r="X65">
+        <v>7.7</v>
+      </c>
+      <c r="Y65">
+        <v>75.68000000000001</v>
+      </c>
+      <c r="Z65">
+        <v>11.2</v>
+      </c>
       <c r="AC65" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>1</v>
       </c>
       <c r="AF65">
         <v>0</v>
@@ -6329,22 +7478,25 @@
       <c r="AG65">
         <v>4.763293743133545</v>
       </c>
-      <c r="AH65" t="s">
-        <v>178</v>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>301392</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <v>9.720000000000001</v>
@@ -6362,7 +7514,7 @@
         <v>95560.63</v>
       </c>
       <c r="J66" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K66">
         <v>4</v>
@@ -6403,8 +7555,23 @@
       <c r="W66">
         <v>0.75</v>
       </c>
+      <c r="X66">
+        <v>-1.83</v>
+      </c>
+      <c r="Y66">
+        <v>196</v>
+      </c>
+      <c r="Z66">
+        <v>3.05</v>
+      </c>
       <c r="AC66" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -6412,22 +7579,25 @@
       <c r="AG66">
         <v>1.429265260696411</v>
       </c>
-      <c r="AH66" t="s">
-        <v>178</v>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>301413</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -6445,7 +7615,7 @@
         <v>43739.24</v>
       </c>
       <c r="J67" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K67">
         <v>1</v>
@@ -6486,8 +7656,23 @@
       <c r="W67">
         <v>0.22</v>
       </c>
+      <c r="X67">
+        <v>10.4</v>
+      </c>
+      <c r="Y67">
+        <v>130.58</v>
+      </c>
+      <c r="Z67">
+        <v>14.8</v>
+      </c>
       <c r="AC67" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>1</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -6495,22 +7680,25 @@
       <c r="AG67">
         <v>1.717422842979431</v>
       </c>
-      <c r="AH67" t="s">
-        <v>178</v>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>301421</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68">
         <v>7.1</v>
@@ -6528,7 +7716,7 @@
         <v>91010.87</v>
       </c>
       <c r="J68" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K68">
         <v>3</v>
@@ -6569,8 +7757,23 @@
       <c r="W68">
         <v>-0.22</v>
       </c>
+      <c r="X68">
+        <v>-1.24</v>
+      </c>
+      <c r="Y68">
+        <v>92.13</v>
+      </c>
+      <c r="Z68">
+        <v>2.63</v>
+      </c>
       <c r="AC68" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
       </c>
       <c r="AF68">
         <v>0</v>
@@ -6578,22 +7781,25 @@
       <c r="AG68">
         <v>-1.893702030181885</v>
       </c>
-      <c r="AH68" t="s">
-        <v>178</v>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>301486</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E69">
         <v>6.92</v>
@@ -6611,7 +7817,7 @@
         <v>136730.59</v>
       </c>
       <c r="J69" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K69">
         <v>8</v>
@@ -6652,8 +7858,23 @@
       <c r="W69">
         <v>0.6</v>
       </c>
+      <c r="X69">
+        <v>5.75</v>
+      </c>
+      <c r="Y69">
+        <v>97.93000000000001</v>
+      </c>
+      <c r="Z69">
+        <v>6.68</v>
+      </c>
       <c r="AC69" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
       </c>
       <c r="AF69">
         <v>1</v>
@@ -6661,22 +7882,25 @@
       <c r="AG69">
         <v>8.006603240966797</v>
       </c>
-      <c r="AH69" t="s">
-        <v>179</v>
+      <c r="AH69">
+        <v>1</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C70">
         <v>301489</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E70">
         <v>14.52</v>
@@ -6694,7 +7918,7 @@
         <v>186565.08</v>
       </c>
       <c r="J70" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K70">
         <v>17</v>
@@ -6735,8 +7959,23 @@
       <c r="W70">
         <v>2.49</v>
       </c>
+      <c r="X70">
+        <v>-1.08</v>
+      </c>
+      <c r="Y70">
+        <v>191.03</v>
+      </c>
+      <c r="Z70">
+        <v>-1.06</v>
+      </c>
       <c r="AC70" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
       </c>
       <c r="AF70">
         <v>0</v>
@@ -6744,22 +7983,25 @@
       <c r="AG70">
         <v>-2.069929122924805</v>
       </c>
-      <c r="AH70" t="s">
-        <v>178</v>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C71">
         <v>301526</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71">
         <v>4.01</v>
@@ -6777,7 +8019,7 @@
         <v>156093.52</v>
       </c>
       <c r="J71" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K71">
         <v>12</v>
@@ -6818,8 +8060,23 @@
       <c r="W71">
         <v>1.33</v>
       </c>
+      <c r="X71">
+        <v>3.09</v>
+      </c>
+      <c r="Y71">
+        <v>7.05</v>
+      </c>
+      <c r="Z71">
+        <v>8.800000000000001</v>
+      </c>
       <c r="AC71" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>1</v>
       </c>
       <c r="AF71">
         <v>0</v>
@@ -6827,22 +8084,25 @@
       <c r="AG71">
         <v>5.274974346160889</v>
       </c>
-      <c r="AH71" t="s">
-        <v>178</v>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C72">
         <v>301617</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E72">
         <v>8.609999999999999</v>
@@ -6860,7 +8120,7 @@
         <v>59816.55</v>
       </c>
       <c r="J72" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K72">
         <v>1</v>
@@ -6901,8 +8161,23 @@
       <c r="W72">
         <v>2.98</v>
       </c>
+      <c r="X72">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="Y72">
+        <v>55</v>
+      </c>
+      <c r="Z72">
+        <v>12.94</v>
+      </c>
       <c r="AC72" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>1</v>
       </c>
       <c r="AF72">
         <v>0</v>
@@ -6910,22 +8185,25 @@
       <c r="AG72">
         <v>-5.83724308013916</v>
       </c>
-      <c r="AH72" t="s">
-        <v>178</v>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C73">
         <v>301626</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E73">
         <v>-3.44</v>
@@ -6943,7 +8221,7 @@
         <v>53302.3</v>
       </c>
       <c r="J73" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K73">
         <v>6</v>
@@ -6984,8 +8262,23 @@
       <c r="W73">
         <v>-0.48</v>
       </c>
+      <c r="X73">
+        <v>-6.24</v>
+      </c>
+      <c r="Y73">
+        <v>167.54</v>
+      </c>
+      <c r="Z73">
+        <v>-0.21</v>
+      </c>
       <c r="AC73" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
       </c>
       <c r="AF73">
         <v>0</v>
@@ -6993,22 +8286,25 @@
       <c r="AG73">
         <v>2.707860708236694</v>
       </c>
-      <c r="AH73" t="s">
-        <v>178</v>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:34">
+    <row r="74" spans="1:35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C74">
         <v>688035</v>
       </c>
       <c r="D74" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E74">
         <v>3.57</v>
@@ -7026,7 +8322,7 @@
         <v>66707.03</v>
       </c>
       <c r="J74" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K74">
         <v>5</v>
@@ -7067,8 +8363,23 @@
       <c r="W74">
         <v>-0.25</v>
       </c>
+      <c r="X74">
+        <v>-1.3</v>
+      </c>
+      <c r="Y74">
+        <v>58.8</v>
+      </c>
+      <c r="Z74">
+        <v>0.93</v>
+      </c>
       <c r="AC74" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
       </c>
       <c r="AF74">
         <v>0</v>
@@ -7076,22 +8387,25 @@
       <c r="AG74">
         <v>0.8587533831596375</v>
       </c>
-      <c r="AH74" t="s">
-        <v>178</v>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:34">
+    <row r="75" spans="1:35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C75">
         <v>688048</v>
       </c>
       <c r="D75" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E75">
         <v>6.45</v>
@@ -7109,7 +8423,7 @@
         <v>81904.39999999999</v>
       </c>
       <c r="J75" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K75">
         <v>15</v>
@@ -7150,8 +8464,23 @@
       <c r="W75">
         <v>0.35</v>
       </c>
+      <c r="X75">
+        <v>3.38</v>
+      </c>
+      <c r="Y75">
+        <v>85.5</v>
+      </c>
+      <c r="Z75">
+        <v>7.75</v>
+      </c>
       <c r="AC75" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>1</v>
       </c>
       <c r="AF75">
         <v>0</v>
@@ -7159,22 +8488,25 @@
       <c r="AG75">
         <v>1.44034481048584</v>
       </c>
-      <c r="AH75" t="s">
-        <v>178</v>
+      <c r="AH75">
+        <v>0</v>
+      </c>
+      <c r="AI75">
+        <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:34">
+    <row r="76" spans="1:35">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C76">
         <v>688049</v>
       </c>
       <c r="D76" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E76">
         <v>4.39</v>
@@ -7192,7 +8524,7 @@
         <v>73177.89999999999</v>
       </c>
       <c r="J76" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K76">
         <v>7</v>
@@ -7233,8 +8565,23 @@
       <c r="W76">
         <v>0.29</v>
       </c>
+      <c r="X76">
+        <v>1.45</v>
+      </c>
+      <c r="Y76">
+        <v>61.68</v>
+      </c>
+      <c r="Z76">
+        <v>8.119999999999999</v>
+      </c>
       <c r="AC76" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>1</v>
       </c>
       <c r="AF76">
         <v>0</v>
@@ -7242,22 +8589,25 @@
       <c r="AG76">
         <v>4.595394134521484</v>
       </c>
-      <c r="AH76" t="s">
-        <v>178</v>
+      <c r="AH76">
+        <v>0</v>
+      </c>
+      <c r="AI76">
+        <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:34">
+    <row r="77" spans="1:35">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C77">
         <v>688146</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E77">
         <v>4.54</v>
@@ -7275,7 +8625,7 @@
         <v>62291.14</v>
       </c>
       <c r="J77" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K77">
         <v>8</v>
@@ -7316,8 +8666,23 @@
       <c r="W77">
         <v>0.44</v>
       </c>
+      <c r="X77">
+        <v>1.18</v>
+      </c>
+      <c r="Y77">
+        <v>44.1</v>
+      </c>
+      <c r="Z77">
+        <v>6.39</v>
+      </c>
       <c r="AC77" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="AD77">
+        <v>0</v>
+      </c>
+      <c r="AE77">
+        <v>0</v>
       </c>
       <c r="AF77">
         <v>0</v>
@@ -7325,22 +8690,25 @@
       <c r="AG77">
         <v>4.472739219665527</v>
       </c>
-      <c r="AH77" t="s">
-        <v>178</v>
+      <c r="AH77">
+        <v>0</v>
+      </c>
+      <c r="AI77">
+        <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:34">
+    <row r="78" spans="1:35">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C78">
         <v>688147</v>
       </c>
       <c r="D78" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E78">
         <v>3.35</v>
@@ -7358,7 +8726,7 @@
         <v>42793.59</v>
       </c>
       <c r="J78" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K78">
         <v>5</v>
@@ -7399,8 +8767,23 @@
       <c r="W78">
         <v>0.6</v>
       </c>
+      <c r="X78">
+        <v>0.08</v>
+      </c>
+      <c r="Y78">
+        <v>40.43</v>
+      </c>
+      <c r="Z78">
+        <v>3.88</v>
+      </c>
       <c r="AC78" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
       </c>
       <c r="AF78">
         <v>0</v>
@@ -7408,22 +8791,25 @@
       <c r="AG78">
         <v>-2.83804988861084</v>
       </c>
-      <c r="AH78" t="s">
-        <v>178</v>
+      <c r="AH78">
+        <v>0</v>
+      </c>
+      <c r="AI78">
+        <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:34">
+    <row r="79" spans="1:35">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C79">
         <v>688167</v>
       </c>
       <c r="D79" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E79">
         <v>7.22</v>
@@ -7441,7 +8827,7 @@
         <v>89395.33</v>
       </c>
       <c r="J79" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K79">
         <v>13</v>
@@ -7482,8 +8868,23 @@
       <c r="W79">
         <v>0.64</v>
       </c>
+      <c r="X79">
+        <v>7.53</v>
+      </c>
+      <c r="Y79">
+        <v>148.83</v>
+      </c>
+      <c r="Z79">
+        <v>14.48</v>
+      </c>
       <c r="AC79" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <v>1</v>
       </c>
       <c r="AF79">
         <v>0</v>
@@ -7491,22 +8892,25 @@
       <c r="AG79">
         <v>-1.397333979606628</v>
       </c>
-      <c r="AH79" t="s">
-        <v>178</v>
+      <c r="AH79">
+        <v>0</v>
+      </c>
+      <c r="AI79">
+        <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:34">
+    <row r="80" spans="1:35">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C80">
         <v>688195</v>
       </c>
       <c r="D80" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E80">
         <v>0.27</v>
@@ -7524,7 +8928,7 @@
         <v>67438.28</v>
       </c>
       <c r="J80" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K80">
         <v>5</v>
@@ -7565,8 +8969,23 @@
       <c r="W80">
         <v>-0.12</v>
       </c>
+      <c r="X80">
+        <v>2.94</v>
+      </c>
+      <c r="Y80">
+        <v>66.87</v>
+      </c>
+      <c r="Z80">
+        <v>7.56</v>
+      </c>
       <c r="AC80" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>1</v>
       </c>
       <c r="AF80">
         <v>0</v>
@@ -7574,22 +8993,25 @@
       <c r="AG80">
         <v>2.241377115249634</v>
       </c>
-      <c r="AH80" t="s">
-        <v>178</v>
+      <c r="AH80">
+        <v>0</v>
+      </c>
+      <c r="AI80">
+        <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:34">
+    <row r="81" spans="1:35">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C81">
         <v>688205</v>
       </c>
       <c r="D81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E81">
         <v>4.88</v>
@@ -7607,7 +9029,7 @@
         <v>124414.63</v>
       </c>
       <c r="J81" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K81">
         <v>1</v>
@@ -7648,8 +9070,23 @@
       <c r="W81">
         <v>0.97</v>
       </c>
+      <c r="X81">
+        <v>10.11</v>
+      </c>
+      <c r="Y81">
+        <v>108.52</v>
+      </c>
+      <c r="Z81">
+        <v>20</v>
+      </c>
       <c r="AC81" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>1</v>
       </c>
       <c r="AF81">
         <v>0</v>
@@ -7657,22 +9094,25 @@
       <c r="AG81">
         <v>12.13656330108643</v>
       </c>
-      <c r="AH81" t="s">
-        <v>178</v>
+      <c r="AH81">
+        <v>0</v>
+      </c>
+      <c r="AI81">
+        <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:34">
+    <row r="82" spans="1:35">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C82">
         <v>688313</v>
       </c>
       <c r="D82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E82">
         <v>6.25</v>
@@ -7690,7 +9130,7 @@
         <v>236801.36</v>
       </c>
       <c r="J82" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K82">
         <v>9</v>
@@ -7731,8 +9171,23 @@
       <c r="W82">
         <v>0.51</v>
       </c>
+      <c r="X82">
+        <v>10.32</v>
+      </c>
+      <c r="Y82">
+        <v>72.18000000000001</v>
+      </c>
+      <c r="Z82">
+        <v>11.46</v>
+      </c>
       <c r="AC82" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="AD82">
+        <v>0</v>
+      </c>
+      <c r="AE82">
+        <v>1</v>
       </c>
       <c r="AF82">
         <v>0</v>
@@ -7740,22 +9195,25 @@
       <c r="AG82">
         <v>3.609434366226196</v>
       </c>
-      <c r="AH82" t="s">
-        <v>178</v>
+      <c r="AH82">
+        <v>0</v>
+      </c>
+      <c r="AI82">
+        <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:34">
+    <row r="83" spans="1:35">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C83">
         <v>688372</v>
       </c>
       <c r="D83" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E83">
         <v>5.8</v>
@@ -7773,7 +9231,7 @@
         <v>141237.57</v>
       </c>
       <c r="J83" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K83">
         <v>2</v>
@@ -7814,8 +9272,23 @@
       <c r="W83">
         <v>-0.45</v>
       </c>
+      <c r="X83">
+        <v>-1.17</v>
+      </c>
+      <c r="Y83">
+        <v>82.88</v>
+      </c>
+      <c r="Z83">
+        <v>2.8</v>
+      </c>
       <c r="AC83" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
       </c>
       <c r="AF83">
         <v>1</v>
@@ -7823,22 +9296,25 @@
       <c r="AG83">
         <v>10.27042961120605</v>
       </c>
-      <c r="AH83" t="s">
-        <v>178</v>
+      <c r="AH83">
+        <v>0</v>
+      </c>
+      <c r="AI83">
+        <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:34">
+    <row r="84" spans="1:35">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C84">
         <v>688381</v>
       </c>
       <c r="D84" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E84">
         <v>2.52</v>
@@ -7856,7 +9332,7 @@
         <v>60666.57</v>
       </c>
       <c r="J84" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K84">
         <v>4</v>
@@ -7897,8 +9373,23 @@
       <c r="W84">
         <v>0.84</v>
       </c>
+      <c r="X84">
+        <v>-4.29</v>
+      </c>
+      <c r="Y84">
+        <v>28.5</v>
+      </c>
+      <c r="Z84">
+        <v>0.25</v>
+      </c>
       <c r="AC84" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="AD84">
+        <v>0</v>
+      </c>
+      <c r="AE84">
+        <v>0</v>
       </c>
       <c r="AF84">
         <v>0</v>
@@ -7906,22 +9397,25 @@
       <c r="AG84">
         <v>4.907567977905273</v>
       </c>
-      <c r="AH84" t="s">
-        <v>178</v>
+      <c r="AH84">
+        <v>0</v>
+      </c>
+      <c r="AI84">
+        <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:34">
+    <row r="85" spans="1:35">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C85">
         <v>688502</v>
       </c>
       <c r="D85" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E85">
         <v>8.01</v>
@@ -7939,7 +9433,7 @@
         <v>62508.06</v>
       </c>
       <c r="J85" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K85">
         <v>20</v>
@@ -7980,8 +9474,23 @@
       <c r="W85">
         <v>0.32</v>
       </c>
+      <c r="X85">
+        <v>2.97</v>
+      </c>
+      <c r="Y85">
+        <v>465</v>
+      </c>
+      <c r="Z85">
+        <v>6.16</v>
+      </c>
       <c r="AC85" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="AD85">
+        <v>0</v>
+      </c>
+      <c r="AE85">
+        <v>0</v>
       </c>
       <c r="AF85">
         <v>0</v>
@@ -7989,22 +9498,25 @@
       <c r="AG85">
         <v>-17.17501258850098</v>
       </c>
-      <c r="AH85" t="s">
-        <v>178</v>
+      <c r="AH85">
+        <v>0</v>
+      </c>
+      <c r="AI85">
+        <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:34">
+    <row r="86" spans="1:35">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C86">
         <v>688508</v>
       </c>
       <c r="D86" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E86">
         <v>7.37</v>
@@ -8022,7 +9534,7 @@
         <v>77653.8</v>
       </c>
       <c r="J86" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K86">
         <v>3</v>
@@ -8063,8 +9575,23 @@
       <c r="W86">
         <v>0.42</v>
       </c>
+      <c r="X86">
+        <v>-0.95</v>
+      </c>
+      <c r="Y86">
+        <v>68.66</v>
+      </c>
+      <c r="Z86">
+        <v>3.34</v>
+      </c>
       <c r="AC86" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="AD86">
+        <v>0</v>
+      </c>
+      <c r="AE86">
+        <v>0</v>
       </c>
       <c r="AF86">
         <v>0</v>
@@ -8072,22 +9599,25 @@
       <c r="AG86">
         <v>2.90178656578064</v>
       </c>
-      <c r="AH86" t="s">
-        <v>178</v>
+      <c r="AH86">
+        <v>0</v>
+      </c>
+      <c r="AI86">
+        <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:34">
+    <row r="87" spans="1:35">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C87">
         <v>688519</v>
       </c>
       <c r="D87" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E87">
         <v>11.61</v>
@@ -8105,7 +9635,7 @@
         <v>142051.47</v>
       </c>
       <c r="J87" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K87">
         <v>5</v>
@@ -8146,8 +9676,23 @@
       <c r="W87">
         <v>0.47</v>
       </c>
+      <c r="X87">
+        <v>0.74</v>
+      </c>
+      <c r="Y87">
+        <v>79.54000000000001</v>
+      </c>
+      <c r="Z87">
+        <v>5</v>
+      </c>
       <c r="AC87" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
+      <c r="AE87">
+        <v>0</v>
       </c>
       <c r="AF87">
         <v>0</v>
@@ -8155,22 +9700,25 @@
       <c r="AG87">
         <v>-11.09819412231445</v>
       </c>
-      <c r="AH87" t="s">
-        <v>178</v>
+      <c r="AH87">
+        <v>0</v>
+      </c>
+      <c r="AI87">
+        <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:34">
+    <row r="88" spans="1:35">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C88">
         <v>688521</v>
       </c>
       <c r="D88" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E88">
         <v>7.94</v>
@@ -8188,7 +9736,7 @@
         <v>544468.84</v>
       </c>
       <c r="J88" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K88">
         <v>3</v>
@@ -8229,8 +9777,23 @@
       <c r="W88">
         <v>0.57</v>
       </c>
+      <c r="X88">
+        <v>5.39</v>
+      </c>
+      <c r="Y88">
+        <v>174.98</v>
+      </c>
+      <c r="Z88">
+        <v>16.79</v>
+      </c>
       <c r="AC88" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="AD88">
+        <v>0</v>
+      </c>
+      <c r="AE88">
+        <v>1</v>
       </c>
       <c r="AF88">
         <v>0</v>
@@ -8238,22 +9801,25 @@
       <c r="AG88">
         <v>-14.47568607330322</v>
       </c>
-      <c r="AH88" t="s">
-        <v>178</v>
+      <c r="AH88">
+        <v>0</v>
+      </c>
+      <c r="AI88">
+        <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:34">
+    <row r="89" spans="1:35">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C89">
         <v>688582</v>
       </c>
       <c r="D89" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E89">
         <v>1.95</v>
@@ -8271,7 +9837,7 @@
         <v>100609.78</v>
       </c>
       <c r="J89" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K89">
         <v>5</v>
@@ -8312,8 +9878,23 @@
       <c r="W89">
         <v>-0.04</v>
       </c>
+      <c r="X89">
+        <v>2.32</v>
+      </c>
+      <c r="Y89">
+        <v>84.69</v>
+      </c>
+      <c r="Z89">
+        <v>4.62</v>
+      </c>
       <c r="AC89" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD89">
+        <v>0</v>
+      </c>
+      <c r="AE89">
+        <v>0</v>
       </c>
       <c r="AF89">
         <v>0</v>
@@ -8321,22 +9902,25 @@
       <c r="AG89">
         <v>1.935188055038452</v>
       </c>
-      <c r="AH89" t="s">
-        <v>178</v>
+      <c r="AH89">
+        <v>0</v>
+      </c>
+      <c r="AI89">
+        <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:34">
+    <row r="90" spans="1:35">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C90">
         <v>688584</v>
       </c>
       <c r="D90" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E90">
         <v>-1.17</v>
@@ -8354,7 +9938,7 @@
         <v>63816.55</v>
       </c>
       <c r="J90" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K90">
         <v>8</v>
@@ -8395,8 +9979,23 @@
       <c r="W90">
         <v>-0.47</v>
       </c>
+      <c r="X90">
+        <v>-2.03</v>
+      </c>
+      <c r="Y90">
+        <v>27.72</v>
+      </c>
+      <c r="Z90">
+        <v>2.4</v>
+      </c>
       <c r="AC90" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD90">
+        <v>0</v>
+      </c>
+      <c r="AE90">
+        <v>0</v>
       </c>
       <c r="AF90">
         <v>0</v>
@@ -8404,22 +10003,25 @@
       <c r="AG90">
         <v>-3.24763035774231</v>
       </c>
-      <c r="AH90" t="s">
-        <v>178</v>
+      <c r="AH90">
+        <v>0</v>
+      </c>
+      <c r="AI90">
+        <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:34">
+    <row r="91" spans="1:35">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C91">
         <v>688603</v>
       </c>
       <c r="D91" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E91">
         <v>1.82</v>
@@ -8437,7 +10039,7 @@
         <v>55008.11</v>
       </c>
       <c r="J91" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K91">
         <v>8</v>
@@ -8478,8 +10080,23 @@
       <c r="W91">
         <v>0.6899999999999999</v>
       </c>
+      <c r="X91">
+        <v>-1.12</v>
+      </c>
+      <c r="Y91">
+        <v>88.84999999999999</v>
+      </c>
+      <c r="Z91">
+        <v>1.1</v>
+      </c>
       <c r="AC91" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="AD91">
+        <v>0</v>
+      </c>
+      <c r="AE91">
+        <v>0</v>
       </c>
       <c r="AF91">
         <v>0</v>
@@ -8487,22 +10104,25 @@
       <c r="AG91">
         <v>1.043134570121765</v>
       </c>
-      <c r="AH91" t="s">
-        <v>178</v>
+      <c r="AH91">
+        <v>0</v>
+      </c>
+      <c r="AI91">
+        <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:34">
+    <row r="92" spans="1:35">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C92">
         <v>688709</v>
       </c>
       <c r="D92" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E92">
         <v>20</v>
@@ -8520,7 +10140,7 @@
         <v>117442.32</v>
       </c>
       <c r="J92" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K92">
         <v>1</v>
@@ -8561,8 +10181,23 @@
       <c r="W92">
         <v>0.77</v>
       </c>
+      <c r="X92">
+        <v>0.96</v>
+      </c>
+      <c r="Y92">
+        <v>49.99</v>
+      </c>
+      <c r="Z92">
+        <v>6.27</v>
+      </c>
       <c r="AC92" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="AD92">
+        <v>0</v>
+      </c>
+      <c r="AE92">
+        <v>0</v>
       </c>
       <c r="AF92">
         <v>1</v>
@@ -8570,22 +10205,25 @@
       <c r="AG92">
         <v>20.23279571533203</v>
       </c>
-      <c r="AH92" t="s">
-        <v>179</v>
+      <c r="AH92">
+        <v>1</v>
+      </c>
+      <c r="AI92">
+        <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:34">
+    <row r="93" spans="1:35">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C93">
         <v>688798</v>
       </c>
       <c r="D93" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E93">
         <v>1.43</v>
@@ -8603,7 +10241,7 @@
         <v>95230.58</v>
       </c>
       <c r="J93" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K93">
         <v>3</v>
@@ -8644,8 +10282,23 @@
       <c r="W93">
         <v>-0.23</v>
       </c>
+      <c r="X93">
+        <v>1.96</v>
+      </c>
+      <c r="Y93">
+        <v>98.93000000000001</v>
+      </c>
+      <c r="Z93">
+        <v>5.45</v>
+      </c>
       <c r="AC93" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD93">
+        <v>0</v>
+      </c>
+      <c r="AE93">
+        <v>0</v>
       </c>
       <c r="AF93">
         <v>0</v>
@@ -8653,8 +10306,11 @@
       <c r="AG93">
         <v>5.894631385803223</v>
       </c>
-      <c r="AH93" t="s">
-        <v>178</v>
+      <c r="AH93">
+        <v>0</v>
+      </c>
+      <c r="AI93">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
